--- a/Excels/Example.xlsx
+++ b/Excels/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengchenyang/Documents/GitHub/Empty/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BBC71A-A23D-8A46-82F9-B2658F56AC52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BE4112D-8651-4046-83DA-08D9CFEBF803}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="2500" windowWidth="27840" windowHeight="16940" xr2:uid="{3C482CF4-54F7-5F4D-8066-2EC07975EDB4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exampleArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1,2,3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,34 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exampleArray1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exampleArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1.5,2.5,3.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exampleArray3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{a,b,c}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,24 +551,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0CF70C-3CEA-3848-BC32-FF1D22DF7413}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,16 +585,22 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,16 +617,22 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -610,19 +646,25 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,19 +678,25 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -662,15 +710,21 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
     </row>
